--- a/AWCV/cv_data.xlsx
+++ b/AWCV/cv_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>section</t>
   </si>
@@ -52,9 +52,6 @@
     <t>University of Georgia (Current)</t>
   </si>
   <si>
-    <t>Graduate Certificate in Infectious Disease Epidemiology</t>
-  </si>
-  <si>
     <t xml:space="preserve">BS, Health Science </t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Columbus State University</t>
   </si>
   <si>
-    <t xml:space="preserve">Member, Eta Sigma Gamma - Health Science Honors Society </t>
-  </si>
-  <si>
     <t>Diploma, Practical Nursing (summa cum laude, Director’s Award for Consistent Academic and Clinical Excellence)</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>Chattanooga College</t>
   </si>
   <si>
-    <t>summa cum laude</t>
-  </si>
-  <si>
     <t>projects</t>
   </si>
   <si>
@@ -175,13 +166,16 @@
     <t xml:space="preserve">University of Georgia, Department of Epidemiology &amp; Biostatistics </t>
   </si>
   <si>
+    <t xml:space="preserve">Assist in administrative departmental tasks, faculty retreats/meeting planning, and department event planning. Create and maintain spreadsheets on department classes, students, etc. Develop presentation materials and assist in orientation. Generate documents with information on degree programs, Graduate School processes, etc. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Instuctor, Assistant Manager </t>
   </si>
   <si>
     <t>ILoveKickboxing</t>
   </si>
   <si>
-    <t>Promoted to assistant manager after 9 months of employment. Responsible for personal health promotion and education for members, instructing group fitness classes, data management. with membership and point-of-sale systems. Integral part in data transfer when changing systems</t>
+    <t>Promoted to assistant manager after 9 months of employment. Responsible for personal health promotion and education for members, instructing group fitness classes, data management. with membership and point-of-sale systems. Integral part in data transfer when changing systems.</t>
   </si>
   <si>
     <t>Licensed Vocational Nurse</t>
@@ -558,9 +552,7 @@
       <c r="F2" s="4">
         <v>2022.0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="4" t="b">
         <v>1</v>
       </c>
@@ -570,13 +562,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="4">
         <v>2018.0</v>
@@ -584,9 +576,7 @@
       <c r="F3" s="4">
         <v>2020.0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="4" t="b">
         <v>1</v>
       </c>
@@ -596,13 +586,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="4">
         <v>2014.0</v>
@@ -610,25 +600,23 @@
       <c r="F4" s="4">
         <v>2015.0</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>2021.0</v>
@@ -637,7 +625,7 @@
         <v>2021.0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="b">
         <v>1</v>
@@ -645,16 +633,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>2021.0</v>
@@ -663,7 +651,7 @@
         <v>2021.0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>1</v>
@@ -671,13 +659,13 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -691,13 +679,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -711,13 +699,13 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -731,13 +719,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -751,13 +739,13 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -771,17 +759,17 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>1</v>
@@ -789,17 +777,17 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="b">
         <v>1</v>
@@ -807,17 +795,17 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>1</v>
@@ -825,10 +813,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -836,15 +824,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -857,17 +845,17 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>1</v>
@@ -875,17 +863,17 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>1</v>
@@ -893,16 +881,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4">
         <v>2021.0</v>
@@ -910,23 +898,25 @@
       <c r="F19" s="4">
         <v>2022.0</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="H19" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4">
         <v>2018.0</v>
@@ -935,7 +925,7 @@
         <v>2019.0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" s="4" t="b">
         <v>1</v>
@@ -943,16 +933,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E21" s="4">
         <v>2016.0</v>
@@ -961,7 +951,7 @@
         <v>2016.0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="4" t="b">
         <v>1</v>
@@ -969,16 +959,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4">
         <v>2016.0</v>
@@ -987,7 +977,7 @@
         <v>2016.0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>1</v>
@@ -995,7 +985,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6101,10 +6091,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -6133,10 +6123,10 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6165,7 +6155,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
@@ -6173,7 +6163,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4">
         <v>4.5</v>
@@ -6181,7 +6171,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -6189,7 +6179,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4">
         <v>4.0</v>
@@ -6197,7 +6187,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4">
         <v>3.5</v>
@@ -6205,7 +6195,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4">
         <v>3.0</v>
@@ -6213,7 +6203,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <v>3.0</v>
@@ -6240,10 +6230,10 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6275,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6304,34 +6294,34 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -9340,13 +9330,13 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -9378,65 +9368,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
